--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2089941.519009644</v>
+        <v>2087085.282159565</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11279834.57841443</v>
+        <v>11279834.57841442</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>470795.8371770074</v>
+        <v>470795.8371770073</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9803967.062052095</v>
+        <v>9803967.062052097</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.15787082233987</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.21022140383137</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>22.3789251334806</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>44.46519227902341</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="E3" t="n">
-        <v>44.4651922790234</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,52 +756,52 @@
         <v>50.48273419507654</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -823,61 +823,61 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>8.386866521745231</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>8.386866521745219</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,73 +896,73 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>32.22184835001295</v>
+      </c>
+      <c r="F5" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="I5" t="n">
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>25.34580260830152</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,22 +975,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>47.3837968773324</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="H6" t="n">
-        <v>47.38379687733242</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.74224000600998</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>53.79631798062264</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>13.74224000600998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>194.5263774453477</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.54643450889167</v>
+        <v>13.54643450889169</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>39.54474922521398</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>194.5263774453495</v>
+        <v>150.9163530032592</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>194.5263774453477</v>
       </c>
       <c r="W8" t="n">
-        <v>194.5263774453495</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>194.5263774453495</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.3716037780466</v>
+        <v>194.5263774453477</v>
       </c>
     </row>
     <row r="9">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.403812210389</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>154.2285637564713</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>124.6899997843136</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>194.5263774453477</v>
       </c>
       <c r="X9" t="n">
-        <v>73.70483994174089</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>194.5263774453495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>127.0075538451362</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.72937606486696</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2031622927484</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>20.19310695843525</v>
+        <v>20.19310695843593</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>194.5263774453477</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>124.63686799428</v>
       </c>
       <c r="G13" t="n">
-        <v>43.00388652221206</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>331.6388439349701</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>359.5517498754658</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>127.7231134750714</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>83.55410938283575</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1850,13 +1850,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127566</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
         <v>283.5630920045443</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>82.59787904366682</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>38.03682829123536</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>9.434273714503275</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>22.01943279781279</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>149.5488865507682</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5420528771669</v>
@@ -2494,7 +2494,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>210.5150276968756</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2728,10 +2728,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>52.54336016299936</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>21.42459393957832</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
@@ -3007,10 +3007,10 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>214.5225506239658</v>
+        <v>88.99308360679437</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3190,10 +3190,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S34" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>141.4740238230462</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U34" t="n">
         <v>286.1854515484204</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>155.4534934380978</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
         <v>217.4819944627618</v>
@@ -3484,10 +3484,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>161.4334662927131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>188.4540376839723</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>2.059946371962357</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
@@ -3715,7 +3715,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
-        <v>149.5556179336349</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>304.3915154833912</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>359.5517498754658</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
         <v>283.5630920045443</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>17.91582343699905</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1854515484204</v>
+        <v>232.1439513207351</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9088959876463</v>
+        <v>200.6173698503548</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>335.9464125187619</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4071,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,16 +4135,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>9.434273714502883</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5420528771669</v>
@@ -4153,7 +4153,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4819944627618</v>
+        <v>53.99988795755714</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.94561517409093</v>
+        <v>26.34797948867967</v>
       </c>
       <c r="C2" t="n">
-        <v>48.95295437098331</v>
+        <v>26.34797948867967</v>
       </c>
       <c r="D2" t="n">
-        <v>48.95295437098331</v>
+        <v>26.34797948867967</v>
       </c>
       <c r="E2" t="n">
-        <v>48.95295437098331</v>
+        <v>26.34797948867967</v>
       </c>
       <c r="F2" t="n">
-        <v>23.54096364134708</v>
+        <v>19.4024787394762</v>
       </c>
       <c r="G2" t="n">
-        <v>8.177103637477007</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H2" t="n">
-        <v>8.177103637477007</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I2" t="n">
-        <v>8.177103637477007</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="J2" t="n">
         <v>4.038618735606123</v>
       </c>
       <c r="K2" t="n">
-        <v>54.01652558873189</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="L2" t="n">
         <v>101.9751230740546</v>
@@ -4352,28 +4352,28 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R2" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="S2" t="n">
         <v>150.9382759771985</v>
       </c>
       <c r="T2" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="U2" t="n">
         <v>99.94561517409093</v>
       </c>
       <c r="V2" t="n">
-        <v>99.94561517409093</v>
+        <v>77.3406402917873</v>
       </c>
       <c r="W2" t="n">
-        <v>99.94561517409093</v>
+        <v>77.3406402917873</v>
       </c>
       <c r="X2" t="n">
-        <v>99.94561517409093</v>
+        <v>26.34797948867967</v>
       </c>
       <c r="Y2" t="n">
-        <v>99.94561517409093</v>
+        <v>26.34797948867967</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="C3" t="n">
-        <v>201.9309367803062</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="D3" t="n">
-        <v>201.9309367803062</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="E3" t="n">
-        <v>157.016601144929</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="F3" t="n">
-        <v>106.0239403418214</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="G3" t="n">
-        <v>106.0239403418214</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="H3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I3" t="n">
         <v>4.038618735606123</v>
@@ -4416,16 +4416,16 @@
         <v>54.01652558873189</v>
       </c>
       <c r="M3" t="n">
-        <v>101.9751230740546</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="N3" t="n">
-        <v>101.9751230740546</v>
+        <v>103.9944324418577</v>
       </c>
       <c r="O3" t="n">
-        <v>101.9751230740546</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="P3" t="n">
-        <v>151.9530299271804</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="Q3" t="n">
         <v>201.9309367803062</v>
@@ -4449,10 +4449,10 @@
         <v>201.9309367803062</v>
       </c>
       <c r="X3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="Y3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.0239403418214</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="C4" t="n">
-        <v>106.0239403418214</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="D4" t="n">
-        <v>106.0239403418214</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="E4" t="n">
-        <v>106.0239403418214</v>
+        <v>63.50286188391095</v>
       </c>
       <c r="F4" t="n">
-        <v>55.03127953871374</v>
+        <v>63.50286188391095</v>
       </c>
       <c r="G4" t="n">
-        <v>55.03127953871374</v>
+        <v>12.51020108080333</v>
       </c>
       <c r="H4" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I4" t="n">
         <v>4.038618735606123</v>
@@ -4513,25 +4513,25 @@
         <v>165.4881834901262</v>
       </c>
       <c r="S4" t="n">
-        <v>165.4881834901262</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="T4" t="n">
-        <v>165.4881834901262</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="U4" t="n">
-        <v>157.016601144929</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="V4" t="n">
-        <v>157.016601144929</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="W4" t="n">
-        <v>106.0239403418214</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="X4" t="n">
-        <v>106.0239403418214</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="Y4" t="n">
-        <v>106.0239403418214</v>
+        <v>114.4955226870186</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>189.5834511060244</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="C5" t="n">
-        <v>135.2437359740823</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="D5" t="n">
-        <v>135.2437359740823</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="E5" t="n">
-        <v>135.2437359740823</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="F5" t="n">
-        <v>128.2982352248789</v>
+        <v>19.61880496099473</v>
       </c>
       <c r="G5" t="n">
-        <v>112.9831357023339</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H5" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="I5" t="n">
         <v>4.303705438449811</v>
@@ -4568,49 +4568,49 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K5" t="n">
-        <v>57.56206023926622</v>
+        <v>50.24940920255072</v>
       </c>
       <c r="L5" t="n">
-        <v>108.6685623208577</v>
+        <v>103.5077640033671</v>
       </c>
       <c r="M5" t="n">
-        <v>108.6685623208577</v>
+        <v>103.5077640033671</v>
       </c>
       <c r="N5" t="n">
-        <v>108.6685623208577</v>
+        <v>156.7661188041835</v>
       </c>
       <c r="O5" t="n">
-        <v>161.9269171216741</v>
+        <v>156.7661188041835</v>
       </c>
       <c r="P5" t="n">
-        <v>215.1852719224906</v>
+        <v>210.024473605</v>
       </c>
       <c r="Q5" t="n">
         <v>215.1852719224906</v>
       </c>
       <c r="R5" t="n">
-        <v>189.5834511060244</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="S5" t="n">
-        <v>189.5834511060244</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="T5" t="n">
-        <v>189.5834511060244</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="U5" t="n">
-        <v>189.5834511060244</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="V5" t="n">
-        <v>189.5834511060244</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="W5" t="n">
-        <v>189.5834511060244</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="X5" t="n">
-        <v>189.5834511060244</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="Y5" t="n">
-        <v>189.5834511060244</v>
+        <v>106.5058416586064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.16612652666438</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="C6" t="n">
-        <v>52.16612652666438</v>
+        <v>167.322850834276</v>
       </c>
       <c r="D6" t="n">
-        <v>52.16612652666438</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="E6" t="n">
-        <v>52.16612652666438</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="F6" t="n">
-        <v>52.16612652666438</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="G6" t="n">
-        <v>52.16612652666438</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H6" t="n">
         <v>4.303705438449811</v>
@@ -4644,22 +4644,22 @@
         <v>4.303705438449811</v>
       </c>
       <c r="J6" t="n">
-        <v>4.303705438449811</v>
+        <v>10.61032575544672</v>
       </c>
       <c r="K6" t="n">
-        <v>57.56206023926622</v>
+        <v>63.86868055626314</v>
       </c>
       <c r="L6" t="n">
-        <v>108.6685623208577</v>
+        <v>117.1270353570795</v>
       </c>
       <c r="M6" t="n">
-        <v>108.6685623208577</v>
+        <v>117.1270353570795</v>
       </c>
       <c r="N6" t="n">
-        <v>108.6685623208577</v>
+        <v>117.1270353570795</v>
       </c>
       <c r="O6" t="n">
-        <v>161.9269171216741</v>
+        <v>117.1270353570795</v>
       </c>
       <c r="P6" t="n">
         <v>161.9269171216741</v>
@@ -4680,16 +4680,16 @@
         <v>215.1852719224906</v>
       </c>
       <c r="V6" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="W6" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="X6" t="n">
-        <v>106.5058416586064</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Y6" t="n">
-        <v>52.16612652666438</v>
+        <v>215.1852719224906</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.9831357023339</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="C7" t="n">
-        <v>112.9831357023339</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="D7" t="n">
-        <v>112.9831357023339</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="E7" t="n">
+        <v>126.8641862134551</v>
+      </c>
+      <c r="F7" t="n">
+        <v>72.52447108151307</v>
+      </c>
+      <c r="G7" t="n">
         <v>58.64342057039187</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4.303705438449811</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4.303705438449811</v>
       </c>
       <c r="H7" t="n">
         <v>4.303705438449811</v>
@@ -4744,31 +4744,31 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="R7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="S7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="T7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="U7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="V7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="W7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="X7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="Y7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.19087812553009</v>
+        <v>232.6821684743661</v>
       </c>
       <c r="C8" t="n">
-        <v>36.19087812553009</v>
+        <v>36.19087812552996</v>
       </c>
       <c r="D8" t="n">
-        <v>36.19087812553009</v>
+        <v>36.19087812552996</v>
       </c>
       <c r="E8" t="n">
-        <v>36.19087812553009</v>
+        <v>36.19087812552996</v>
       </c>
       <c r="F8" t="n">
-        <v>29.24537737632662</v>
+        <v>29.24537737632649</v>
       </c>
       <c r="G8" t="n">
-        <v>15.56211019562796</v>
+        <v>15.56211019562782</v>
       </c>
       <c r="H8" t="n">
-        <v>15.56211019562796</v>
+        <v>15.56211019562782</v>
       </c>
       <c r="I8" t="n">
-        <v>15.56211019562796</v>
+        <v>15.56211019562782</v>
       </c>
       <c r="J8" t="n">
-        <v>151.3056957879491</v>
+        <v>28.38131657585151</v>
       </c>
       <c r="K8" t="n">
-        <v>154.5909884985453</v>
+        <v>31.66660928644549</v>
       </c>
       <c r="L8" t="n">
-        <v>195.5684464694326</v>
+        <v>72.64406725732991</v>
       </c>
       <c r="M8" t="n">
-        <v>272.8332014170151</v>
+        <v>149.9088222049092</v>
       </c>
       <c r="N8" t="n">
-        <v>355.9619892562966</v>
+        <v>342.4899358758035</v>
       </c>
       <c r="O8" t="n">
-        <v>548.5431029271926</v>
+        <v>407.6508317300879</v>
       </c>
       <c r="P8" t="n">
-        <v>600.2319454009871</v>
+        <v>600.2319454009822</v>
       </c>
       <c r="Q8" t="n">
-        <v>778.1055097813978</v>
+        <v>778.105509781391</v>
       </c>
       <c r="R8" t="n">
-        <v>738.161318644818</v>
+        <v>778.105509781391</v>
       </c>
       <c r="S8" t="n">
-        <v>738.161318644818</v>
+        <v>778.105509781391</v>
       </c>
       <c r="T8" t="n">
-        <v>738.161318644818</v>
+        <v>778.105509781391</v>
       </c>
       <c r="U8" t="n">
-        <v>541.6700282959802</v>
+        <v>625.6647491720382</v>
       </c>
       <c r="V8" t="n">
-        <v>541.6700282959802</v>
+        <v>429.1734588232022</v>
       </c>
       <c r="W8" t="n">
-        <v>345.1787379471423</v>
+        <v>429.1734588232022</v>
       </c>
       <c r="X8" t="n">
-        <v>148.6874475983044</v>
+        <v>429.1734588232022</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.19087812553009</v>
+        <v>232.6821684743661</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>338.9495491380062</v>
+        <v>299.8782966640853</v>
       </c>
       <c r="C9" t="n">
-        <v>164.4965198568792</v>
+        <v>299.8782966640853</v>
       </c>
       <c r="D9" t="n">
-        <v>15.56211019562796</v>
+        <v>299.8782966640853</v>
       </c>
       <c r="E9" t="n">
-        <v>15.56211019562796</v>
+        <v>299.8782966640853</v>
       </c>
       <c r="F9" t="n">
-        <v>15.56211019562796</v>
+        <v>153.3437386909703</v>
       </c>
       <c r="G9" t="n">
-        <v>15.56211019562796</v>
+        <v>15.56211019562782</v>
       </c>
       <c r="H9" t="n">
-        <v>15.56211019562796</v>
+        <v>15.56211019562782</v>
       </c>
       <c r="I9" t="n">
-        <v>15.56211019562796</v>
+        <v>15.56211019562782</v>
       </c>
       <c r="J9" t="n">
-        <v>102.7166801547534</v>
+        <v>41.00794373384522</v>
       </c>
       <c r="K9" t="n">
-        <v>116.4779804629178</v>
+        <v>233.5890574047395</v>
       </c>
       <c r="L9" t="n">
-        <v>252.9238276658821</v>
+        <v>298.4153650741562</v>
       </c>
       <c r="M9" t="n">
-        <v>347.9299392289645</v>
+        <v>393.4214766372362</v>
       </c>
       <c r="N9" t="n">
-        <v>540.5110528998605</v>
+        <v>505.3507621896303</v>
       </c>
       <c r="O9" t="n">
-        <v>733.0921665707565</v>
+        <v>585.5243961104967</v>
       </c>
       <c r="P9" t="n">
-        <v>778.1055097813978</v>
+        <v>778.105509781391</v>
       </c>
       <c r="Q9" t="n">
-        <v>778.1055097813978</v>
+        <v>778.105509781391</v>
       </c>
       <c r="R9" t="n">
-        <v>778.1055097813978</v>
+        <v>778.105509781391</v>
       </c>
       <c r="S9" t="n">
-        <v>778.1055097813978</v>
+        <v>622.3190817445513</v>
       </c>
       <c r="T9" t="n">
-        <v>778.1055097813978</v>
+        <v>622.3190817445513</v>
       </c>
       <c r="U9" t="n">
-        <v>778.1055097813978</v>
+        <v>622.3190817445513</v>
       </c>
       <c r="V9" t="n">
-        <v>778.1055097813978</v>
+        <v>496.3695870129214</v>
       </c>
       <c r="W9" t="n">
-        <v>778.1055097813978</v>
+        <v>299.8782966640853</v>
       </c>
       <c r="X9" t="n">
-        <v>703.6561765069121</v>
+        <v>299.8782966640853</v>
       </c>
       <c r="Y9" t="n">
-        <v>507.1648861580742</v>
+        <v>299.8782966640853</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.4179736161741</v>
+        <v>379.5686768665213</v>
       </c>
       <c r="C10" t="n">
-        <v>460.4817906882672</v>
+        <v>379.5686768665213</v>
       </c>
       <c r="D10" t="n">
-        <v>310.3651512759315</v>
+        <v>332.3672869020092</v>
       </c>
       <c r="E10" t="n">
-        <v>162.4520576935383</v>
+        <v>184.4541933196161</v>
       </c>
       <c r="F10" t="n">
-        <v>15.56211019562796</v>
+        <v>184.4541933196161</v>
       </c>
       <c r="G10" t="n">
-        <v>15.56211019562796</v>
+        <v>15.56211019562782</v>
       </c>
       <c r="H10" t="n">
-        <v>15.56211019562796</v>
+        <v>15.56211019562782</v>
       </c>
       <c r="I10" t="n">
-        <v>15.56211019562796</v>
+        <v>15.56211019562782</v>
       </c>
       <c r="J10" t="n">
-        <v>15.56211019562796</v>
+        <v>15.56211019562782</v>
       </c>
       <c r="K10" t="n">
-        <v>84.13003218601423</v>
+        <v>84.13003218601318</v>
       </c>
       <c r="L10" t="n">
-        <v>227.3997998273783</v>
+        <v>227.3997998273761</v>
       </c>
       <c r="M10" t="n">
-        <v>388.8468049960005</v>
+        <v>388.846804995997</v>
       </c>
       <c r="N10" t="n">
-        <v>551.8895776553655</v>
+        <v>551.8895776553608</v>
       </c>
       <c r="O10" t="n">
-        <v>686.4696719292527</v>
+        <v>686.4696719292468</v>
       </c>
       <c r="P10" t="n">
-        <v>778.1055097813978</v>
+        <v>778.105509781391</v>
       </c>
       <c r="Q10" t="n">
-        <v>757.7084320456046</v>
+        <v>757.7084320455971</v>
       </c>
       <c r="R10" t="n">
-        <v>757.7084320456046</v>
+        <v>757.7084320455971</v>
       </c>
       <c r="S10" t="n">
-        <v>757.7084320456046</v>
+        <v>757.7084320455971</v>
       </c>
       <c r="T10" t="n">
-        <v>757.7084320456046</v>
+        <v>757.7084320455971</v>
       </c>
       <c r="U10" t="n">
-        <v>757.7084320456046</v>
+        <v>757.7084320455971</v>
       </c>
       <c r="V10" t="n">
-        <v>757.7084320456046</v>
+        <v>757.7084320455971</v>
       </c>
       <c r="W10" t="n">
-        <v>757.7084320456046</v>
+        <v>757.7084320455971</v>
       </c>
       <c r="X10" t="n">
-        <v>757.7084320456046</v>
+        <v>561.217141696761</v>
       </c>
       <c r="Y10" t="n">
-        <v>757.7084320456046</v>
+        <v>561.217141696761</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5036,28 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128751</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L11" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q11" t="n">
         <v>4514.497374127288</v>
@@ -5121,22 +5121,22 @@
         <v>240.4596049779265</v>
       </c>
       <c r="K12" t="n">
-        <v>570.9683475412852</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.700680385036</v>
+        <v>561.2235631333346</v>
       </c>
       <c r="M12" t="n">
-        <v>1653.719034637164</v>
+        <v>1153.241917385462</v>
       </c>
       <c r="N12" t="n">
-        <v>2275.8149980365</v>
+        <v>1775.337880784798</v>
       </c>
       <c r="O12" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q12" t="n">
         <v>2552.77562977024</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>745.0885253246415</v>
+        <v>675.7074548523129</v>
       </c>
       <c r="C13" t="n">
-        <v>576.1523423967346</v>
+        <v>675.7074548523129</v>
       </c>
       <c r="D13" t="n">
-        <v>426.0357029843989</v>
+        <v>675.7074548523129</v>
       </c>
       <c r="E13" t="n">
-        <v>278.1226094020058</v>
+        <v>527.7943612699198</v>
       </c>
       <c r="F13" t="n">
-        <v>278.1226094020058</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G13" t="n">
         <v>234.6843401876502</v>
@@ -5197,19 +5197,19 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
@@ -5221,28 +5221,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2208.69699212455</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1919.620778439276</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1664.936290233389</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1375.519120196429</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1147.529569298411</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>926.7369901548813</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5261,10 @@
         <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.408479409638</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>742.4225746200302</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872365</v>
@@ -5273,16 +5273,16 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
         <v>372.3074987251936</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
         <v>2182.462224957688</v>
@@ -5294,7 +5294,7 @@
         <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
         <v>4514.497374127288</v>
@@ -5352,31 +5352,31 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>301.0525042748304</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>791.7848371185818</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1383.80319137071</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N15" t="n">
-        <v>2005.899154770046</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220732</v>
+        <v>930.3919430581999</v>
       </c>
       <c r="C16" t="n">
-        <v>325.1228070941663</v>
+        <v>761.455760130293</v>
       </c>
       <c r="D16" t="n">
-        <v>325.1228070941663</v>
+        <v>632.4425141958775</v>
       </c>
       <c r="E16" t="n">
-        <v>177.2097135117732</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="F16" t="n">
-        <v>177.2097135117732</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608053</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608053</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608053</v>
@@ -5470,16 +5470,16 @@
         <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930821</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.48958489386</v>
+        <v>1379.174073099747</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958431</v>
+        <v>1151.18452220173</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523129</v>
+        <v>930.3919430581999</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1591.032978284207</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G17" t="n">
         <v>380.2757138127629</v>
@@ -5513,13 +5513,13 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>424.1437450015196</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287892015</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M17" t="n">
         <v>2234.298471234014</v>
@@ -5592,16 +5592,16 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>142.676769632785</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="M18" t="n">
-        <v>734.6951238849127</v>
+        <v>1164.023426718939</v>
       </c>
       <c r="N18" t="n">
         <v>1356.791087284249</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.7042115721531</v>
+        <v>715.8882940911302</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7680286442462</v>
+        <v>715.8882940911302</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6513892319105</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7382956495174</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F19" t="n">
-        <v>93.84834815160703</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G19" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I19" t="n">
         <v>93.84834815160703</v>
@@ -5695,28 +5695,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.991460657679</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.312678372061</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.236464686788</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.551976480901</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.13480644394</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.145255545923</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3526764023928</v>
+        <v>897.5367589213699</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
         <v>1591.032978284208</v>
@@ -5738,7 +5738,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G20" t="n">
         <v>380.2757138127629</v>
@@ -5765,13 +5765,13 @@
         <v>2920.783927800321</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
@@ -5783,19 +5783,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="21">
@@ -5832,16 +5832,16 @@
         <v>241.496329903453</v>
       </c>
       <c r="K21" t="n">
-        <v>572.0050724668117</v>
+        <v>302.0892292003568</v>
       </c>
       <c r="L21" t="n">
-        <v>1062.737405310563</v>
+        <v>792.8215620441082</v>
       </c>
       <c r="M21" t="n">
-        <v>1654.755759562691</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N21" t="n">
-        <v>2276.851722962027</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O21" t="n">
         <v>2553.812354695766</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476001</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C22" t="n">
-        <v>485.5661455390109</v>
+        <v>507.8079968499329</v>
       </c>
       <c r="D22" t="n">
-        <v>485.5661455390109</v>
+        <v>507.8079968499329</v>
       </c>
       <c r="E22" t="n">
-        <v>485.5661455390109</v>
+        <v>507.8079968499329</v>
       </c>
       <c r="F22" t="n">
         <v>485.5661455390109</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963557</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
         <v>93.84834815160703</v>
@@ -5987,25 +5987,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>424.1437450015196</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
-        <v>893.7741287892015</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q23" t="n">
         <v>4566.333620403613</v>
@@ -6014,7 +6014,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
@@ -6029,10 +6029,10 @@
         <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="24">
@@ -6063,19 +6063,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>1063.776437885086</v>
+        <v>792.8215620441082</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.794792137213</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N24" t="n">
         <v>2006.935879695572</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.8714428665047</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="C25" t="n">
-        <v>402.9352599385978</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="D25" t="n">
-        <v>402.9352599385978</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E25" t="n">
-        <v>402.9352599385978</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F25" t="n">
-        <v>402.9352599385978</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
@@ -6181,16 +6181,16 @@
         <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.943479856348</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.302037738292</v>
+        <v>1380.210798025274</v>
       </c>
       <c r="X25" t="n">
-        <v>974.3124868402746</v>
+        <v>1152.221247127257</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.5199076967444</v>
+        <v>931.4286679837268</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831368</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890956</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.032978284206</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685962</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963548</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G26" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
         <v>373.34422365072</v>
@@ -6239,37 +6239,37 @@
         <v>2920.783927800321</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q26" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.740996026518</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746066</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402495</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132381</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871301</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.86103389549</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160701</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160701</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K27" t="n">
-        <v>93.84834815160701</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L27" t="n">
-        <v>107.3505653988748</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M27" t="n">
-        <v>699.3689196510026</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N27" t="n">
-        <v>1321.464883050339</v>
+        <v>2277.890755536549</v>
       </c>
       <c r="O27" t="n">
-        <v>1868.341358050533</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="P27" t="n">
-        <v>2287.924876476609</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q27" t="n">
         <v>2518.486150461856</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>957.5492919979874</v>
+        <v>1016.791123359144</v>
       </c>
       <c r="C28" t="n">
-        <v>788.6131090700806</v>
+        <v>847.854940431237</v>
       </c>
       <c r="D28" t="n">
-        <v>638.4964696577448</v>
+        <v>697.7383010189012</v>
       </c>
       <c r="E28" t="n">
-        <v>490.5833760753517</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F28" t="n">
-        <v>343.6934285774413</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G28" t="n">
-        <v>176.4792337520201</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
         <v>172.8304710411609</v>
@@ -6406,28 +6406,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2376.338398160948</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S28" t="n">
-        <v>2193.168207899878</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T28" t="n">
-        <v>2193.168207899878</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U28" t="n">
-        <v>1904.091994214605</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V28" t="n">
-        <v>1649.407506008718</v>
+        <v>1715.846309124362</v>
       </c>
       <c r="W28" t="n">
-        <v>1359.990335971757</v>
+        <v>1426.429139087401</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.990335971757</v>
+        <v>1198.439588189384</v>
       </c>
       <c r="Y28" t="n">
-        <v>1139.197756828227</v>
+        <v>1198.439588189384</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D29" t="n">
         <v>1591.032978284208</v>
@@ -6452,7 +6452,7 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
         <v>93.84834815160703</v>
@@ -6479,34 +6479,34 @@
         <v>3603.64596425946</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K30" t="n">
-        <v>424.3570907149658</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L30" t="n">
-        <v>424.3570907149658</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M30" t="n">
-        <v>1016.375444967094</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N30" t="n">
-        <v>1638.47140836643</v>
+        <v>2277.890755536549</v>
       </c>
       <c r="O30" t="n">
-        <v>1868.341358050533</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P30" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>635.6827849513467</v>
+        <v>949.3053695472213</v>
       </c>
       <c r="C31" t="n">
-        <v>635.6827849513467</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="D31" t="n">
-        <v>485.5661455390109</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E31" t="n">
-        <v>485.5661455390109</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F31" t="n">
         <v>485.5661455390109</v>
@@ -6643,28 +6643,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>1482.802824897847</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="W31" t="n">
-        <v>1266.113379823134</v>
+        <v>1579.735964419008</v>
       </c>
       <c r="X31" t="n">
-        <v>1038.123828925116</v>
+        <v>1351.746413520991</v>
       </c>
       <c r="Y31" t="n">
-        <v>817.3312497815864</v>
+        <v>1130.953834377461</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D32" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E32" t="n">
         <v>1205.244725685964</v>
@@ -6689,7 +6689,7 @@
         <v>794.2588208963562</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H32" t="n">
         <v>93.84834815160703</v>
@@ -6698,22 +6698,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>424.1437450015196</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K32" t="n">
-        <v>893.7741287892015</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L32" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P32" t="n">
         <v>4202.751434297606</v>
@@ -6725,7 +6725,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6789,7 +6789,7 @@
         <v>1654.755759562691</v>
       </c>
       <c r="N33" t="n">
-        <v>2276.851722962027</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O33" t="n">
         <v>2553.812354695766</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.8714428665047</v>
+        <v>810.6593445000771</v>
       </c>
       <c r="C34" t="n">
-        <v>402.9352599385978</v>
+        <v>641.7231615721702</v>
       </c>
       <c r="D34" t="n">
-        <v>402.9352599385978</v>
+        <v>491.6065221598344</v>
       </c>
       <c r="E34" t="n">
-        <v>402.9352599385978</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="F34" t="n">
-        <v>402.9352599385978</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="G34" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I34" t="n">
         <v>93.84834815160703</v>
@@ -6883,25 +6883,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S34" t="n">
-        <v>2178.382964033126</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.479909666413</v>
+        <v>2141.874372008578</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.403695981139</v>
+        <v>1852.798158323305</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.719207775252</v>
+        <v>1598.113670117418</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.302037738292</v>
+        <v>1441.089939371864</v>
       </c>
       <c r="X34" t="n">
-        <v>974.3124868402746</v>
+        <v>1213.100388473847</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.5199076967444</v>
+        <v>992.3078093303168</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831368</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890956</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284206</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685962</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963548</v>
       </c>
       <c r="G35" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q35" t="n">
-        <v>4515.534099052815</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.740996026518</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746066</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402495</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132381</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871301</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.86103389549</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K36" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>107.3505653988748</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>699.3689196510026</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N36" t="n">
-        <v>1321.464883050339</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O36" t="n">
-        <v>1868.341358050533</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>804.6189678792535</v>
+        <v>532.7276520234227</v>
       </c>
       <c r="C37" t="n">
-        <v>635.6827849513467</v>
+        <v>532.7276520234227</v>
       </c>
       <c r="D37" t="n">
-        <v>485.5661455390109</v>
+        <v>382.6110126110869</v>
       </c>
       <c r="E37" t="n">
-        <v>485.5661455390109</v>
+        <v>382.6110126110869</v>
       </c>
       <c r="F37" t="n">
-        <v>485.5661455390109</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G37" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H37" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J37" t="n">
         <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117245</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948588</v>
       </c>
       <c r="M37" t="n">
         <v>1239.450608139318</v>
@@ -7108,37 +7108,37 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S37" t="n">
-        <v>2361.553154294196</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>2141.874372008578</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1852.798158323305</v>
+        <v>1669.627968062234</v>
       </c>
       <c r="V37" t="n">
-        <v>1598.113670117418</v>
+        <v>1414.943479856347</v>
       </c>
       <c r="W37" t="n">
-        <v>1435.049562751041</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>1207.060011853023</v>
+        <v>935.1686959971926</v>
       </c>
       <c r="Y37" t="n">
-        <v>986.2674327094933</v>
+        <v>714.3761168536624</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H38" t="n">
         <v>93.84834815160703</v>
@@ -7172,28 +7172,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P38" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q38" t="n">
-        <v>4515.534099052815</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R38" t="n">
         <v>4692.417407580351</v>
@@ -7251,25 +7251,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K39" t="n">
-        <v>302.0892292003568</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L39" t="n">
-        <v>792.8215620441082</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M39" t="n">
-        <v>1384.839916296236</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N39" t="n">
-        <v>2006.935879695572</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.812354695766</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>700.9649929333267</v>
+        <v>784.1719286328732</v>
       </c>
       <c r="C40" t="n">
-        <v>700.9649929333267</v>
+        <v>615.2357457049663</v>
       </c>
       <c r="D40" t="n">
-        <v>550.8483535209909</v>
+        <v>613.1549917938933</v>
       </c>
       <c r="E40" t="n">
-        <v>402.9352599385978</v>
+        <v>465.2418982115001</v>
       </c>
       <c r="F40" t="n">
-        <v>402.9352599385978</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G40" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160703</v>
@@ -7354,28 +7354,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S40" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T40" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1875.497246047961</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="V40" t="n">
-        <v>1620.812757842074</v>
+        <v>1704.019693541621</v>
       </c>
       <c r="W40" t="n">
-        <v>1331.395587805114</v>
+        <v>1414.60252350466</v>
       </c>
       <c r="X40" t="n">
-        <v>1103.406036907096</v>
+        <v>1186.612972606643</v>
       </c>
       <c r="Y40" t="n">
-        <v>882.6134577635664</v>
+        <v>965.820393463113</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1897.462430614632</v>
       </c>
       <c r="D41" t="n">
-        <v>1539.196732007882</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E41" t="n">
-        <v>1153.408479409638</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F41" t="n">
-        <v>742.4225746200302</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G41" t="n">
         <v>379.2389888872365</v>
@@ -7409,25 +7409,25 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J41" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K41" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128747</v>
       </c>
       <c r="L41" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018649</v>
       </c>
       <c r="M41" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957686</v>
       </c>
       <c r="N41" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O41" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P41" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q41" t="n">
         <v>4514.497374127288</v>
@@ -7485,31 +7485,31 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I42" t="n">
-        <v>93.85065580060312</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J42" t="n">
-        <v>93.85065580060312</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K42" t="n">
-        <v>93.85065580060312</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L42" t="n">
-        <v>106.3138404733484</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M42" t="n">
-        <v>698.3321947254761</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.428158124812</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O42" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P42" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q42" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R42" t="n">
         <v>2552.77562977024</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>745.0885253246415</v>
+        <v>951.4953365361201</v>
       </c>
       <c r="C43" t="n">
-        <v>576.1523423967346</v>
+        <v>782.5591536082133</v>
       </c>
       <c r="D43" t="n">
-        <v>426.0357029843989</v>
+        <v>632.4425141958775</v>
       </c>
       <c r="E43" t="n">
-        <v>278.1226094020058</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="F43" t="n">
-        <v>278.1226094020058</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G43" t="n">
-        <v>110.9084145765846</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H43" t="n">
-        <v>92.81162322608053</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I43" t="n">
         <v>92.81162322608053</v>
       </c>
       <c r="J43" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K43" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L43" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M43" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N43" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O43" t="n">
         <v>2020.132206020528</v>
@@ -7591,28 +7591,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R43" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S43" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="T43" t="n">
-        <v>2208.69699212455</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="U43" t="n">
-        <v>1919.620778439276</v>
+        <v>2126.027589650755</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.936290233389</v>
+        <v>1871.343101444868</v>
       </c>
       <c r="W43" t="n">
-        <v>1375.519120196429</v>
+        <v>1581.925931407907</v>
       </c>
       <c r="X43" t="n">
-        <v>1147.529569298411</v>
+        <v>1353.93638050989</v>
       </c>
       <c r="Y43" t="n">
-        <v>926.7369901548813</v>
+        <v>1133.14380136636</v>
       </c>
     </row>
     <row r="44">
@@ -7643,28 +7643,28 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I44" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608043</v>
       </c>
       <c r="J44" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251933</v>
       </c>
       <c r="K44" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L44" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M44" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N44" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O44" t="n">
         <v>3602.609239333933</v>
       </c>
       <c r="P44" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q44" t="n">
         <v>4514.497374127288</v>
@@ -7679,16 +7679,16 @@
         <v>4353.904749750193</v>
       </c>
       <c r="U44" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V44" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W44" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X44" t="n">
-        <v>3043.164119594978</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y44" t="n">
         <v>2703.824308969966</v>
@@ -7725,28 +7725,28 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J45" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K45" t="n">
-        <v>92.81162322608053</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L45" t="n">
-        <v>106.3138404733484</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M45" t="n">
-        <v>698.3321947254761</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.428158124812</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O45" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P45" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q45" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R45" t="n">
         <v>2552.77562977024</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>494.0589900220732</v>
+        <v>948.2686446216948</v>
       </c>
       <c r="C46" t="n">
-        <v>494.0589900220732</v>
+        <v>779.3324616937879</v>
       </c>
       <c r="D46" t="n">
-        <v>494.0589900220732</v>
+        <v>779.3324616937879</v>
       </c>
       <c r="E46" t="n">
-        <v>494.0589900220732</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="F46" t="n">
         <v>484.5294206134844</v>
@@ -7804,19 +7804,19 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J46" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K46" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L46" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M46" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N46" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O46" t="n">
         <v>2020.132206020528</v>
@@ -7834,22 +7834,22 @@
         <v>2177.346239107599</v>
       </c>
       <c r="T46" t="n">
-        <v>1957.667456821981</v>
+        <v>2122.800897736329</v>
       </c>
       <c r="U46" t="n">
-        <v>1668.591243136708</v>
+        <v>2122.800897736329</v>
       </c>
       <c r="V46" t="n">
-        <v>1413.906754930821</v>
+        <v>1868.116409530443</v>
       </c>
       <c r="W46" t="n">
-        <v>1124.48958489386</v>
+        <v>1578.699239493482</v>
       </c>
       <c r="X46" t="n">
-        <v>896.5000339958431</v>
+        <v>1350.709688595465</v>
       </c>
       <c r="Y46" t="n">
-        <v>675.7074548523129</v>
+        <v>1129.917109451934</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>258.8041889468121</v>
+        <v>256.7644825146879</v>
       </c>
       <c r="L2" t="n">
-        <v>269.6097064983847</v>
+        <v>271.649412930509</v>
       </c>
       <c r="M2" t="n">
         <v>214.1012135983212</v>
@@ -8064,19 +8064,19 @@
         <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
-        <v>178.0347681206704</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>168.9501955242219</v>
       </c>
       <c r="O3" t="n">
-        <v>130.8188201934042</v>
+        <v>179.2618479563565</v>
       </c>
       <c r="P3" t="n">
         <v>175.0047203318838</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1458149818875</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,25 +8216,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>255.9772818167572</v>
+        <v>248.5907656180547</v>
       </c>
       <c r="L5" t="n">
-        <v>265.1715861506252</v>
+        <v>267.3451747559029</v>
       </c>
       <c r="M5" t="n">
         <v>205.6249188705004</v>
       </c>
       <c r="N5" t="n">
-        <v>204.2917325281876</v>
+        <v>258.0880505088102</v>
       </c>
       <c r="O5" t="n">
-        <v>260.1731688314972</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P5" t="n">
         <v>264.7836813017771</v>
       </c>
       <c r="Q5" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>179.4738158616228</v>
       </c>
       <c r="L6" t="n">
-        <v>173.8211892316314</v>
+        <v>175.9947778369091</v>
       </c>
       <c r="M6" t="n">
         <v>123.047446830095</v>
@@ -8307,10 +8307,10 @@
         <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>178.4699366681766</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
-        <v>119.5899201578276</v>
+        <v>164.8423259806504</v>
       </c>
       <c r="Q6" t="n">
         <v>184.1624432744798</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>44.93057556389604</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8462,13 +8462,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>110.55790488042</v>
       </c>
       <c r="O8" t="n">
-        <v>128.707290723847</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>30.88538007244554</v>
+        <v>173.2008055240641</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>63.75897834959354</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>180.6260741037692</v>
       </c>
       <c r="L9" t="n">
-        <v>72.34296922580367</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>81.46649304898926</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>113.5429088384114</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>149.0583540002573</v>
       </c>
       <c r="Q9" t="n">
-        <v>20.02926116093005</v>
+        <v>20.02926116093127</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.31264782908809</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.312647829089</v>
+        <v>51.31264782908997</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.312647829089</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>20.78418002865122</v>
       </c>
       <c r="G13" t="n">
-        <v>122.5381663549549</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23501,13 +23501,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>50.29152613729173</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>50.29152613729184</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>20.892359543141</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>81.98794349433118</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>66.01759397454553</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>143.3016600672236</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>157.8125473841246</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>123.4016152251184</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>30.28309363116907</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>76.00797063971544</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>14.63739142808419</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>230.7130493842497</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>72.00044771262523</v>
+        <v>197.5299147297966</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
-        <v>76.00797063971558</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>131.0695048984932</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>125.0895320438779</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>37.25561770506485</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.55552664625</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>136.6298336147855</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>50.29152613729178</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>50.29152613729184</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>122.5381663549549</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>54.04150022768528</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>50.29152613729153</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.29152613729173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,16 +26023,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>135.9867743084284</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26074,10 +26074,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>163.4821065052047</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>867028.2539585767</v>
+        <v>867028.2539585772</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>829456.1495441175</v>
+        <v>829456.1495441174</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>829456.1495441173</v>
+        <v>829456.1495441176</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>834682.6690226377</v>
+        <v>834682.6690226378</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>834682.6690226379</v>
+        <v>834682.6690226378</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>834682.6690226378</v>
+        <v>834682.6690226379</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>834682.6690226379</v>
+        <v>834682.6690226378</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>834682.6690226378</v>
+        <v>834682.6690226379</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>829456.1495441173</v>
+        <v>829456.1495441174</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516053</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516055</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516054</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>581942.8344375718</v>
+        <v>581942.8344375719</v>
       </c>
       <c r="F2" t="n">
         <v>581942.834437572</v>
       </c>
       <c r="G2" t="n">
+        <v>584845.1584109553</v>
+      </c>
+      <c r="H2" t="n">
+        <v>584845.1584109553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>584845.1584109552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>584845.1584109553</v>
+      </c>
+      <c r="K2" t="n">
+        <v>584845.1584109552</v>
+      </c>
+      <c r="L2" t="n">
         <v>584845.1584109551</v>
       </c>
-      <c r="H2" t="n">
-        <v>584845.1584109552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>584845.1584109553</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>584845.1584109551</v>
       </c>
-      <c r="K2" t="n">
-        <v>584845.1584109551</v>
-      </c>
-      <c r="L2" t="n">
-        <v>584845.1584109553</v>
-      </c>
-      <c r="M2" t="n">
-        <v>584845.1584109552</v>
-      </c>
       <c r="N2" t="n">
-        <v>584845.1584109553</v>
+        <v>584845.158410955</v>
       </c>
       <c r="O2" t="n">
-        <v>581942.834437572</v>
+        <v>581942.8344375724</v>
       </c>
       <c r="P2" t="n">
-        <v>581942.8344375722</v>
+        <v>581942.8344375723</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>387872.7479877623</v>
+        <v>387872.747987758</v>
       </c>
       <c r="E3" t="n">
-        <v>1028375.81428089</v>
+        <v>1028375.814280894</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3551.884390161652</v>
+        <v>3551.884390161715</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13208.50450573655</v>
+        <v>13208.50450573661</v>
       </c>
       <c r="K3" t="n">
-        <v>852.8104317184983</v>
+        <v>852.8104317184398</v>
       </c>
       <c r="L3" t="n">
-        <v>35617.51147998717</v>
+        <v>35617.51147998634</v>
       </c>
       <c r="M3" t="n">
-        <v>240636.0955655112</v>
+        <v>240636.0955655118</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>389279.094329008</v>
       </c>
       <c r="D4" t="n">
-        <v>290332.884164856</v>
+        <v>290332.8841648571</v>
       </c>
       <c r="E4" t="n">
         <v>7500.835840494316</v>
       </c>
       <c r="F4" t="n">
+        <v>7500.835840494326</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8630.196431623895</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8630.196431623881</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8630.196431623865</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8630.196431623881</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8630.196431623883</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8630.196431623881</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8630.196431623888</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8630.19643162391</v>
+      </c>
+      <c r="O4" t="n">
         <v>7500.835840494316</v>
       </c>
-      <c r="G4" t="n">
-        <v>8630.196431623899</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8630.196431623866</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8630.196431623899</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8630.196431623846</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8630.196431623866</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8630.196431623899</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8630.196431623866</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8630.196431623866</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7500.83584049431</v>
-      </c>
       <c r="P4" t="n">
-        <v>7500.835840494309</v>
+        <v>7500.835840494316</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>54978.79587578353</v>
+        <v>54978.79587578333</v>
       </c>
       <c r="E5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126751.7793688608</v>
+        <v>126751.7793688606</v>
       </c>
       <c r="C6" t="n">
-        <v>156309.3896669826</v>
+        <v>156309.3896669827</v>
       </c>
       <c r="D6" t="n">
-        <v>-137929.1448767966</v>
+        <v>-137929.1448767929</v>
       </c>
       <c r="E6" t="n">
-        <v>-554075.9441976508</v>
+        <v>-554121.8491932206</v>
       </c>
       <c r="F6" t="n">
-        <v>474299.870083239</v>
+        <v>474253.9650876736</v>
       </c>
       <c r="G6" t="n">
-        <v>471733.0381319311</v>
+        <v>471697.1411500669</v>
       </c>
       <c r="H6" t="n">
-        <v>475284.9225220928</v>
+        <v>475249.0255402286</v>
       </c>
       <c r="I6" t="n">
-        <v>475284.9225220929</v>
+        <v>475249.0255402285</v>
       </c>
       <c r="J6" t="n">
-        <v>462076.4180163562</v>
+        <v>462040.521034492</v>
       </c>
       <c r="K6" t="n">
-        <v>474432.1120903742</v>
+        <v>474396.21510851</v>
       </c>
       <c r="L6" t="n">
-        <v>439667.4110421058</v>
+        <v>439631.514060242</v>
       </c>
       <c r="M6" t="n">
-        <v>234648.8269565816</v>
+        <v>234612.9299747165</v>
       </c>
       <c r="N6" t="n">
-        <v>475284.9225220929</v>
+        <v>475249.0255402283</v>
       </c>
       <c r="O6" t="n">
-        <v>474299.8700832394</v>
+        <v>474253.965087674</v>
       </c>
       <c r="P6" t="n">
-        <v>474299.8700832395</v>
+        <v>474253.9650876739</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>436.8803728030406</v>
+        <v>436.8803728030362</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26793,7 +26793,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>194.5263774453495</v>
+        <v>194.5263774453477</v>
       </c>
       <c r="E4" t="n">
         <v>1160.145290326006</v>
@@ -26963,13 +26963,13 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>401.8591120839153</v>
+        <v>401.8591120839108</v>
       </c>
       <c r="E3" t="n">
-        <v>921.1606759133449</v>
+        <v>921.1606759133497</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,16 +27015,16 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>140.7300594647268</v>
+        <v>140.7300594647251</v>
       </c>
       <c r="E4" t="n">
-        <v>965.618912880657</v>
+        <v>965.6189128806586</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908154</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.48273419507632</v>
+        <v>50.48273419507655</v>
       </c>
       <c r="K4" t="n">
-        <v>3.313583785546371</v>
+        <v>3.313583785546143</v>
       </c>
       <c r="L4" t="n">
-        <v>140.7300594647268</v>
+        <v>140.7300594647235</v>
       </c>
       <c r="M4" t="n">
-        <v>965.6189128806568</v>
+        <v>965.6189128806592</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>140.7300594647268</v>
+        <v>140.7300594647251</v>
       </c>
       <c r="M4" t="n">
-        <v>965.618912880657</v>
+        <v>965.6189128806586</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908154</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>314.790157575931</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>381.7181749193716</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27400,7 +27400,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>93.57486856939362</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>156.4291245048363</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>172.208126091823</v>
       </c>
       <c r="U2" t="n">
-        <v>200.8555174238556</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>305.3733333366543</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>319.2483664833925</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>128.2433067092923</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>96.96233136956221</v>
       </c>
       <c r="E3" t="n">
-        <v>113.1798881763775</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>94.58647819830733</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
@@ -27476,7 +27476,7 @@
         <v>61.27463958220945</v>
       </c>
       <c r="I3" t="n">
-        <v>37.20960569321311</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>155.2902510084009</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>95.95122845149263</v>
       </c>
       <c r="F4" t="n">
-        <v>94.9383138278547</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>117.4667456208323</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>153.4713373255685</v>
       </c>
       <c r="I4" t="n">
-        <v>103.7197363071342</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
         <v>90.42516245839145</v>
@@ -27585,19 +27585,19 @@
         <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>172.8106399958207</v>
       </c>
       <c r="T4" t="n">
         <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>277.9298992233338</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>236.0402641415145</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>311.4765737903849</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>349.7085217222489</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>353.0797277610888</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>284.2366289136782</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>151.2518041370232</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>115.6794790769778</v>
+        <v>87.22896370465668</v>
       </c>
       <c r="S5" t="n">
         <v>205.8118405263978</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>332.441620675431</v>
       </c>
     </row>
     <row r="6">
@@ -27695,22 +27695,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>125.3247021109833</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>93.64874758401612</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>103.8487624747783</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2681884137393</v>
+        <v>83.47187043311668</v>
       </c>
       <c r="H6" t="n">
-        <v>64.12413022611202</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
         <v>86.80307722268739</v>
@@ -27752,16 +27752,16 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>179.0042691688026</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>151.9766672228548</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>151.8863777966817</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166.0897401759273</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,10 +27786,10 @@
         <v>91.62473004230861</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9278262653587</v>
+        <v>154.1855862593487</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>107.8693661172546</v>
       </c>
       <c r="I7" t="n">
         <v>153.551289182031</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.07751490248382</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>170.7465143256598</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>321.4880639530771</v>
+        <v>321.4880639530774</v>
       </c>
       <c r="I8" t="n">
-        <v>142.766017922208</v>
+        <v>142.7660179222087</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>39.54474922521511</v>
       </c>
       <c r="S8" t="n">
-        <v>168.9983148314743</v>
+        <v>168.9983148314747</v>
       </c>
       <c r="T8" t="n">
         <v>215.407633154301</v>
       </c>
       <c r="U8" t="n">
-        <v>56.67877122198757</v>
+        <v>100.2887956640778</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>133.2258810247872</v>
       </c>
       <c r="W8" t="n">
-        <v>154.7145912720636</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>175.2047232331196</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.866334878007</v>
+        <v>191.7115612107058</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.403812210389</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>103.1598727184559</v>
+        <v>103.159872718456</v>
       </c>
       <c r="I9" t="n">
-        <v>57.04275618628423</v>
+        <v>57.04275618628456</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>41.81369681868232</v>
+        <v>41.81369681868292</v>
       </c>
       <c r="S9" t="n">
-        <v>154.2285637564711</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>196.3770582928783</v>
@@ -27989,16 +27989,16 @@
         <v>225.8795593867102</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>108.1105873651116</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>57.16860571557186</v>
       </c>
       <c r="X9" t="n">
-        <v>132.0681452617366</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.15631833195491</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.82442633680112</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.8860969533454</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2031622927483</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>155.2227625959416</v>
+        <v>155.2227625959417</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7586671693491</v>
+        <v>131.7586671693494</v>
       </c>
       <c r="J10" t="n">
-        <v>37.66051357094742</v>
+        <v>37.66051357094799</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>141.8702713135</v>
+        <v>141.8702713135004</v>
       </c>
       <c r="S10" t="n">
-        <v>210.2870951736374</v>
+        <v>210.2870951736375</v>
       </c>
       <c r="T10" t="n">
         <v>224.5794619657007</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>31.1832779436894</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.756303006243378</v>
+        <v>1.75630300624336</v>
       </c>
       <c r="H8" t="n">
-        <v>17.98673816269</v>
+        <v>17.98673816268981</v>
       </c>
       <c r="I8" t="n">
-        <v>67.7098716481979</v>
+        <v>67.70987164819721</v>
       </c>
       <c r="J8" t="n">
-        <v>149.064022276149</v>
+        <v>149.0640222761475</v>
       </c>
       <c r="K8" t="n">
-        <v>223.4083285304313</v>
+        <v>223.408328530429</v>
       </c>
       <c r="L8" t="n">
-        <v>277.1577866577521</v>
+        <v>277.1577866577493</v>
       </c>
       <c r="M8" t="n">
-        <v>308.3914402450328</v>
+        <v>308.3914402450296</v>
       </c>
       <c r="N8" t="n">
-        <v>313.3815361615218</v>
+        <v>313.3815361615186</v>
       </c>
       <c r="O8" t="n">
-        <v>295.9172981431892</v>
+        <v>295.9172981431861</v>
       </c>
       <c r="P8" t="n">
-        <v>252.5585676765558</v>
+        <v>252.5585676765532</v>
       </c>
       <c r="Q8" t="n">
-        <v>189.6609662654647</v>
+        <v>189.6609662654628</v>
       </c>
       <c r="R8" t="n">
-        <v>110.3243687159357</v>
+        <v>110.3243687159346</v>
       </c>
       <c r="S8" t="n">
-        <v>40.02175475477102</v>
+        <v>40.0217547547706</v>
       </c>
       <c r="T8" t="n">
-        <v>7.688216409830392</v>
+        <v>7.688216409830313</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1405042404994702</v>
+        <v>0.1405042404994688</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9397049528216346</v>
+        <v>0.9397049528216249</v>
       </c>
       <c r="H9" t="n">
-        <v>9.075571518040526</v>
+        <v>9.075571518040432</v>
       </c>
       <c r="I9" t="n">
-        <v>32.35387666513085</v>
+        <v>32.35387666513051</v>
       </c>
       <c r="J9" t="n">
-        <v>88.78151047688962</v>
+        <v>88.78151047688871</v>
       </c>
       <c r="K9" t="n">
-        <v>151.7417423159391</v>
+        <v>151.7417423159376</v>
       </c>
       <c r="L9" t="n">
-        <v>204.0354986378729</v>
+        <v>204.0354986378708</v>
       </c>
       <c r="M9" t="n">
-        <v>238.0998031776571</v>
+        <v>238.0998031776547</v>
       </c>
       <c r="N9" t="n">
-        <v>244.4015964796935</v>
+        <v>244.401596479691</v>
       </c>
       <c r="O9" t="n">
-        <v>223.5797130513825</v>
+        <v>223.5797130513802</v>
       </c>
       <c r="P9" t="n">
-        <v>179.4424308594225</v>
+        <v>179.4424308594207</v>
       </c>
       <c r="Q9" t="n">
-        <v>119.9525129250915</v>
+        <v>119.9525129250902</v>
       </c>
       <c r="R9" t="n">
-        <v>58.34413733396081</v>
+        <v>58.34413733396021</v>
       </c>
       <c r="S9" t="n">
-        <v>17.45460734736675</v>
+        <v>17.45460734736658</v>
       </c>
       <c r="T9" t="n">
-        <v>3.787670401943342</v>
+        <v>3.787670401943303</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06182269426458125</v>
+        <v>0.06182269426458061</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7878170657104011</v>
+        <v>0.787817065710393</v>
       </c>
       <c r="H10" t="n">
-        <v>7.004409911497935</v>
+        <v>7.004409911497863</v>
       </c>
       <c r="I10" t="n">
-        <v>23.69180775790916</v>
+        <v>23.69180775790892</v>
       </c>
       <c r="J10" t="n">
-        <v>55.69866654572535</v>
+        <v>55.69866654572478</v>
       </c>
       <c r="K10" t="n">
-        <v>91.53001908889931</v>
+        <v>91.53001908889837</v>
       </c>
       <c r="L10" t="n">
-        <v>117.1269117511627</v>
+        <v>117.1269117511615</v>
       </c>
       <c r="M10" t="n">
-        <v>123.4939060367677</v>
+        <v>123.4939060367664</v>
       </c>
       <c r="N10" t="n">
-        <v>120.5574969736654</v>
+        <v>120.5574969736641</v>
       </c>
       <c r="O10" t="n">
-        <v>111.3543612515029</v>
+        <v>111.3543612515018</v>
       </c>
       <c r="P10" t="n">
-        <v>95.28289311101065</v>
+        <v>95.28289311100967</v>
       </c>
       <c r="Q10" t="n">
-        <v>65.96893629325913</v>
+        <v>65.96893629325845</v>
       </c>
       <c r="R10" t="n">
-        <v>35.42312006366948</v>
+        <v>35.42312006366912</v>
       </c>
       <c r="S10" t="n">
-        <v>13.72950286333489</v>
+        <v>13.72950286333475</v>
       </c>
       <c r="T10" t="n">
-        <v>3.366127462580804</v>
+        <v>3.366127462580769</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04297183994784011</v>
+        <v>0.04297183994783967</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31832,7 +31832,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,34 +31841,34 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745724</v>
+        <v>462.55837791665</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>422.3544583169088</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31914,7 +31914,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31923,16 +31923,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -32072,13 +32072,13 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>348.1857632660256</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745725</v>
@@ -32090,7 +32090,7 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>385.6218958841481</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32312,19 +32312,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>187.8760176396499</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>326.0565207351611</v>
       </c>
       <c r="O18" t="n">
         <v>694.9967242426205</v>
@@ -32552,7 +32552,7 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848224</v>
+        <v>199.0463877591104</v>
       </c>
       <c r="L21" t="n">
         <v>634.2436048745725</v>
@@ -32564,7 +32564,7 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>422.3544583169084</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32783,7 +32783,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>275.9770021735818</v>
@@ -32792,13 +32792,13 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745725</v>
+        <v>361.6013389488605</v>
       </c>
       <c r="M24" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>486.0296793139987</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
         <v>694.9967242426205</v>
@@ -33020,16 +33020,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>152.1929830599426</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
         <v>740.1323715504302</v>
@@ -33038,13 +33038,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426205</v>
+        <v>385.6218958841481</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>181.3625385436714</v>
@@ -33257,16 +33257,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M30" t="n">
         <v>740.1323715504302</v>
@@ -33275,16 +33275,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O30" t="n">
-        <v>374.7881128122254</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.25758340862161</v>
@@ -33509,10 +33509,10 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O33" t="n">
-        <v>422.3544583169084</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,43 +33728,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>152.1929830599426</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33810,7 +33810,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
         <v>0.436756920190194</v>
@@ -33965,43 +33965,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>348.1857632660254</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>382.7677754386397</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
         <v>0.1921756201013754</v>
@@ -34047,7 +34047,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J40" t="n">
         <v>173.1391022273333</v>
@@ -34056,16 +34056,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
         <v>296.1865264282424</v>
@@ -34077,7 +34077,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
         <v>0.436756920190194</v>
@@ -34202,43 +34202,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>151.1434552068896</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504302</v>
+        <v>467.4901056247186</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
         <v>0.1921756201013754</v>
@@ -34284,7 +34284,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
         <v>173.1391022273333</v>
@@ -34293,16 +34293,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
         <v>296.1865264282424</v>
@@ -34314,7 +34314,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
         <v>10.46359496551969</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
         <v>0.436756920190194</v>
@@ -34439,43 +34439,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>152.1929830599427</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670522</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
         <v>0.1921756201013754</v>
@@ -34521,7 +34521,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
         <v>173.1391022273333</v>
@@ -34530,16 +34530,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
         <v>296.1865264282424</v>
@@ -34551,7 +34551,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
         <v>10.46359496551969</v>
@@ -34699,10 +34699,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>48.44302776295223</v>
+      </c>
+      <c r="L2" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="L2" t="n">
-        <v>48.44302776295223</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>50.48273419507654</v>
+      </c>
+      <c r="O3" t="n">
         <v>48.44302776295223</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>46.40980178192011</v>
+      </c>
+      <c r="L5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="L5" t="n">
-        <v>51.62272937534495</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="L6" t="n">
-        <v>51.62272937534495</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,10 +35027,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>45.25240582282282</v>
       </c>
       <c r="Q6" t="n">
         <v>53.79631798062264</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.1147329215365</v>
+        <v>12.94869331335727</v>
       </c>
       <c r="K8" t="n">
-        <v>3.318477485450728</v>
+        <v>3.318477485448454</v>
       </c>
       <c r="L8" t="n">
-        <v>41.39137168776489</v>
+        <v>41.39137168776205</v>
       </c>
       <c r="M8" t="n">
-        <v>78.04520701776008</v>
+        <v>78.04520701775689</v>
       </c>
       <c r="N8" t="n">
-        <v>83.96847256493089</v>
+        <v>194.5263774453477</v>
       </c>
       <c r="O8" t="n">
-        <v>194.5263774453495</v>
+        <v>65.81908672149942</v>
       </c>
       <c r="P8" t="n">
-        <v>52.21095199373178</v>
+        <v>194.5263774453477</v>
       </c>
       <c r="Q8" t="n">
-        <v>179.6702670509199</v>
+        <v>179.670267050918</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>88.03491915063177</v>
+        <v>25.70286215981556</v>
       </c>
       <c r="K9" t="n">
-        <v>13.90030334158016</v>
+        <v>194.5263774453477</v>
       </c>
       <c r="L9" t="n">
-        <v>137.8240880838024</v>
+        <v>65.48111885799665</v>
       </c>
       <c r="M9" t="n">
-        <v>95.9657692556388</v>
+        <v>95.96576925563636</v>
       </c>
       <c r="N9" t="n">
-        <v>194.5263774453495</v>
+        <v>113.0598843963577</v>
       </c>
       <c r="O9" t="n">
-        <v>194.5263774453495</v>
+        <v>80.98346860693576</v>
       </c>
       <c r="P9" t="n">
-        <v>45.46802344509226</v>
+        <v>194.5263774453477</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>69.26052726301646</v>
+        <v>69.26052726301552</v>
       </c>
       <c r="L10" t="n">
-        <v>144.7169370114789</v>
+        <v>144.7169370114777</v>
       </c>
       <c r="M10" t="n">
-        <v>163.0777829986083</v>
+        <v>163.077782998607</v>
       </c>
       <c r="N10" t="n">
-        <v>164.689669352894</v>
+        <v>164.6896693528927</v>
       </c>
       <c r="O10" t="n">
-        <v>135.9394891655426</v>
+        <v>135.9394891655414</v>
       </c>
       <c r="P10" t="n">
-        <v>92.56145237590414</v>
+        <v>92.56145237590316</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946982</v>
+        <v>324.0039981367758</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>279.7582138724644</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35574,19 +35574,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.759632787009</v>
       </c>
       <c r="P14" t="n">
         <v>553.844392613483</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>210.3443242916665</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946983</v>
@@ -35738,7 +35738,7 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>243.0256514397037</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
         <v>474.3741250380626</v>
@@ -35890,7 +35890,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N17" t="n">
         <v>744.73230092637</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>49.32163785977568</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>194.7148086518279</v>
       </c>
       <c r="O18" t="n">
         <v>552.4004797981761</v>
@@ -36133,7 +36133,7 @@
         <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806160982</v>
       </c>
       <c r="P20" t="n">
         <v>553.844392613483</v>
@@ -36142,7 +36142,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104634</v>
+        <v>61.20494878475137</v>
       </c>
       <c r="L21" t="n">
         <v>495.6892250946983</v>
@@ -36212,7 +36212,7 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>279.758213872464</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K23" t="n">
         <v>474.3741250380626</v>
@@ -36376,7 +36376,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R23" t="n">
         <v>127.3573607845842</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>149.1393755069151</v>
@@ -36440,13 +36440,13 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946983</v>
+        <v>223.0469591689863</v>
       </c>
       <c r="M24" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>354.6879672306654</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
         <v>552.4004797981761</v>
@@ -36607,7 +36607,7 @@
         <v>744.73230092637</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806160982</v>
       </c>
       <c r="P26" t="n">
         <v>553.844392613483</v>
@@ -36616,7 +36616,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>178.6700086136723</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>13.63860328006845</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
         <v>597.9983376284119</v>
@@ -36686,13 +36686,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981761</v>
+        <v>243.0256514397037</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>35.68303457970742</v>
@@ -36847,13 +36847,13 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P29" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q29" t="n">
         <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M30" t="n">
         <v>597.9983376284119</v>
@@ -36923,16 +36923,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O30" t="n">
-        <v>232.191868367781</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K32" t="n">
         <v>474.3741250380626</v>
@@ -37084,7 +37084,7 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P32" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q32" t="n">
         <v>367.2547334404112</v>
@@ -37157,10 +37157,10 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O33" t="n">
-        <v>279.758213872464</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>178.6700086136732</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>13.63860328006844</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
         <v>262.2512393642057</v>
@@ -37470,19 +37470,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N37" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>178.6700086136732</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>210.3443242916665</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>251.4260633553063</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K40" t="n">
         <v>262.2512393642057</v>
@@ -37707,19 +37707,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N40" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845839</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>12.5890754270154</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284119</v>
+        <v>325.3560717027003</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K43" t="n">
         <v>262.2512393642057</v>
@@ -37944,19 +37944,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N43" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845839</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>13.63860328006852</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="O45" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K46" t="n">
         <v>262.2512393642057</v>
@@ -38181,19 +38181,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P46" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
